--- a/10.vaje/poraba.xlsx
+++ b/10.vaje/poraba.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/95a7f394ac1e0393/Documents/RS/rac-praktikum/10.vaje/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{DB024210-1BD4-674C-B304-48B62DBB35CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B66744F-A2C6-4465-BA53-958B43B1C486}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{DB024210-1BD4-674C-B304-48B62DBB35CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5B14D02-597C-4ABE-B0A8-FD7ED0FF6F83}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Poraba" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -997,7 +997,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3D515BA3-D80C-45FF-A345-C7449911A451}" name="Vrtilna tabela1" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Vrednosti" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="Mesec">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3D515BA3-D80C-45FF-A345-C7449911A451}" name="Vrtilna tabela1" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Vrednosti" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="Mesec">
   <location ref="B28:I31" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField numFmtId="14" showAll="0">
@@ -1864,26 +1864,26 @@
   <dimension ref="B2:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="20" width="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>45051</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>1.276</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>45059</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>1.288</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>45068</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>1.355</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>45073</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>1.355</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>45085</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>1.359</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>45093</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>1.3740000000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>45099</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>1.3740000000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>45113</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>1.4159999999999999</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>45122</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>1.4159999999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>45129</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>45138</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>1.3819999999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>45151</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>1.4119999999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>45163</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>1.4239999999999999</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>45175</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>1.444</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>45184</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>1.456</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>45191</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>1.5109999999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>45198</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>1.5109999999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>45205</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>1.544</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>45213</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>1.5509999999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J22" s="1">
         <v>45195</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>1.5880000000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J23" s="1">
         <v>45209</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>1.536</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J24" s="1">
         <v>45223</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>1.536</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J25" s="1">
         <v>45237</v>
       </c>
@@ -2544,20 +2544,20 @@
         <v>1.534</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C28" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>19</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>17</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>10269</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
         <v>18</v>
       </c>
